--- a/docs/BOM.xlsx
+++ b/docs/BOM.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9446A881-D7CA-4508-8EDD-5FB8F596D20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
   <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>Component</t>
   </si>
   <si>
@@ -31,6 +40,15 @@
     <t>Hardware</t>
   </si>
   <si>
+    <t>Wires</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>3D Printed Parts</t>
+  </si>
+  <si>
     <t>Flanged Bearing</t>
   </si>
   <si>
@@ -52,18 +70,12 @@
     <t>Steel Ball (Diameter)</t>
   </si>
   <si>
-    <t>Wires</t>
-  </si>
-  <si>
     <t>SH1.0 Cable</t>
   </si>
   <si>
     <t>Dupont Cable</t>
   </si>
   <si>
-    <t>Electronics</t>
-  </si>
-  <si>
     <t>Encoder Module</t>
   </si>
   <si>
@@ -100,9 +112,6 @@
     <t>18650 Battery</t>
   </si>
   <si>
-    <t>3D Printed Parts</t>
-  </si>
-  <si>
     <t>loamcake</t>
   </si>
   <si>
@@ -260,9 +269,6 @@
   </si>
   <si>
     <t>To SUBS receiver</t>
-  </si>
-  <si>
-    <t>See shop link</t>
   </si>
   <si>
     <t>Top Cover</t>
@@ -292,12 +298,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -305,8 +311,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -318,7 +331,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -341,28 +354,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -400,7 +436,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -434,6 +470,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -468,9 +505,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -643,14 +681,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,524 +708,560 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="A31:A42"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>